--- a/resources/20 UK Garden Bird Experiments/Model Metrics.xlsx
+++ b/resources/20 UK Garden Bird Experiments/Model Metrics.xlsx
@@ -5,13 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmahn\OneDrive\Documents\Open University\TM470 - The computing and IT Project\root\20 UK Garden Birds\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmahn\OneDrive\Documents\Open University\TM470 - The computing and IT Project\root\20 UK Garden Birds\resources\20 UK Garden Bird Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90CA064-F452-49F4-8556-E6EA5EBC2A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BBF96D-317E-4A65-84BD-703C25F1D11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A87D1BAB-7775-4FE3-A451-26B7B1FA7E15}"/>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="16440" windowHeight="28590" xr2:uid="{9D836905-A655-4C83-9BAD-876FF191FDB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1 (Metrics)" sheetId="1" r:id="rId1"/>
@@ -112,7 +111,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -246,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -261,23 +260,23 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -290,10 +289,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -303,185 +298,188 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,10 +497,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,11 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEF6386-EE81-4A55-8224-AC789DC04015}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:Z17"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,130 +828,130 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73">
+      <c r="A6" s="65">
         <v>1</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="44">
+      <c r="B6" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="36">
         <v>47</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="63">
         <v>0.14381944444444444</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="38">
         <v>0.99890000000000001</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="38">
         <v>0.26950000000000002</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="68">
         <v>1</v>
       </c>
-      <c r="I6" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="46">
+      <c r="I6" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="38">
         <v>0.95</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="38">
         <v>0.94</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="38">
         <v>0.94</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="38">
         <v>0.94</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="A7" s="66"/>
+      <c r="B7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
         <v>17</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="39">
         <v>7.5659722222222225E-2</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="23">
         <v>1</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="42">
+      <c r="H7" s="69"/>
+      <c r="I7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="35">
         <v>0.97</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="35">
         <v>0.97</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="35">
         <v>0.97</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="35">
         <v>0.97</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="33">
         <f>SUM(C6:C7)</f>
         <v>64</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="64">
         <f>SUM(D6:D7)</f>
         <v>0.21947916666666667</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1039,6 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView zoomScaleNormal="100" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1092,273 +1082,273 @@
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>18</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="39">
         <v>4.155092592592593E-3</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="23">
         <v>0.95050000000000001</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <v>0.14779999999999999</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="21">
         <v>1</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <v>0.94</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="23">
         <v>0.94</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="23">
         <v>0.94</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="23">
         <v>0.94</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>16</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="39">
         <v>3.5763888888888894E-3</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="23">
         <v>0.92579999999999996</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="23">
         <v>0.2319</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="21">
         <v>2</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <v>0.93</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="23">
         <v>0.93</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="23">
         <v>0.93</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="23">
         <v>0.93</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>12</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="39">
         <v>2.8009259259259259E-3</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="23">
         <v>0.93640000000000001</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="23">
         <v>0.25490000000000002</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="21">
         <v>3</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <v>0.93</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="23">
         <v>0.93</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="23">
         <v>0.93</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="23">
         <v>0.93</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>12</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="39">
         <v>2.8124999999999995E-3</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="23">
         <v>0.91169999999999995</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="23">
         <v>0.24909999999999999</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="21">
         <v>4</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="23">
         <v>0.93</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="23">
         <v>0.92</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="23">
         <v>0.92</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="23">
         <v>0.92</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
-        <v>5</v>
-      </c>
-      <c r="B10" s="51">
+      <c r="A10" s="40">
+        <v>5</v>
+      </c>
+      <c r="B10" s="40">
         <v>16</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="41">
         <v>3.7268518518518514E-3</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="42">
         <v>0.92579999999999996</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="42">
         <v>0.28079999999999999</v>
       </c>
-      <c r="H10" s="51">
-        <v>5</v>
-      </c>
-      <c r="I10" s="53">
+      <c r="H10" s="40">
+        <v>5</v>
+      </c>
+      <c r="I10" s="42">
         <v>0.95</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="42">
         <v>0.94</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="42">
         <v>0.94</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="42">
         <v>0.94</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="44">
         <f>AVERAGE(B6:B10)</f>
         <v>14.8</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="45">
         <f>AVERAGE(C6:C10)</f>
         <v>3.4143518518518516E-3</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="38">
         <f>AVERAGE(D6:D10)</f>
         <v>0.93003999999999998</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="38">
         <f>AVERAGE(E6:E10)</f>
         <v>0.23290000000000002</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="48">
         <f>AVERAGE(I6:I10)</f>
         <v>0.93600000000000017</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="48">
         <f>AVERAGE(J6:J10)</f>
         <v>0.93200000000000005</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="48">
         <f>AVERAGE(K6:K10)</f>
         <v>0.93200000000000005</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="48">
         <f>AVERAGE(L6:L10)</f>
         <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="62">
         <f>_xlfn.STDEV.P(B6:B10)</f>
         <v>2.4</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="46">
         <f>_xlfn.STDEV.P(C6:C10)</f>
         <v>5.3124873920612134E-4</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="35">
         <f>_xlfn.STDEV.P(D6:D10)</f>
         <v>1.289474311492868E-2</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="35">
         <f>_xlfn.STDEV.P(E6:E10)</f>
         <v>4.5351648261115887E-2</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="49">
         <f>_xlfn.STDEV.P(I6:I10)</f>
         <v>7.9999999999999568E-3</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="49">
         <f>_xlfn.STDEV.P(J6:J10)</f>
         <v>7.4833147735478417E-3</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="49">
         <f>_xlfn.STDEV.P(K6:K10)</f>
         <v>7.4833147735478417E-3</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="49">
         <f>_xlfn.STDEV.P(L6:L10)</f>
         <v>7.4833147735478417E-3</v>
       </c>
@@ -1376,7 +1366,6 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1405,64 +1394,64 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="24">
+      <c r="B6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="21">
         <v>100</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>2.0381944444444446E-2</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <v>0.96109999999999995</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>0.1603</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="78">
         <v>1</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="56" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="3">
@@ -1479,24 +1468,24 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="A7" s="71"/>
+      <c r="B7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
         <v>65</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>1.4259259259259261E-2</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="23">
         <v>0.96819999999999995</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28" t="s">
+      <c r="H7" s="72"/>
+      <c r="I7" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="16">
@@ -1513,30 +1502,24 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="25">
         <f>SUM(C6:C7)</f>
         <v>165</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="26">
         <f>SUM(D6:D7)</f>
         <v>3.4641203703703709E-2</v>
       </c>
-      <c r="E8" s="31">
-        <f>SUM(E6:E7)</f>
-        <v>1.9293</v>
-      </c>
-      <c r="F8" s="31">
-        <f>SUM(F6:F7)</f>
-        <v>0.25340000000000001</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="H8" s="71">
         <v>2</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="9">
@@ -1553,26 +1536,26 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="71">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="21">
         <v>100</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>1.9456018518518518E-2</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="23">
         <v>0.93640000000000001</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="23">
         <v>0.2079</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="16">
@@ -1589,26 +1572,26 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="A10" s="71"/>
+      <c r="B10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21">
         <v>32</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="23">
         <v>0.95409999999999995</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="23">
         <v>0.16059999999999999</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="71">
         <v>3</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="9">
@@ -1625,28 +1608,28 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <f>SUM(C9:C10)</f>
         <v>132</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="26">
         <f>SUM(D9:D10)</f>
         <v>2.6296296296296297E-2</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="27">
         <f>SUM(E9:E10)</f>
         <v>1.8904999999999998</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="27">
         <f>SUM(F9:F10)</f>
         <v>0.36849999999999999</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28" t="s">
+      <c r="H11" s="72"/>
+      <c r="I11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="16">
@@ -1663,28 +1646,28 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="71">
         <v>3</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="24">
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="21">
         <v>100</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>2.0104166666666666E-2</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="23">
         <v>0.93640000000000001</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="23">
         <v>0.21870000000000001</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="71">
         <v>4</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="9">
@@ -1701,24 +1684,24 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="24">
+      <c r="A13" s="71"/>
+      <c r="B13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="21">
         <v>19</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>4.0393518518518521E-3</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="23">
         <v>0.95409999999999995</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="23">
         <v>0.18279999999999999</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28" t="s">
+      <c r="H13" s="72"/>
+      <c r="I13" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="16">
@@ -1735,30 +1718,24 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="25">
         <f>SUM(C12:C13)</f>
         <v>119</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <f>SUM(D12:D13)</f>
         <v>2.4143518518518519E-2</v>
       </c>
-      <c r="E14" s="31">
-        <f>SUM(E12:E13)</f>
-        <v>1.8904999999999998</v>
-      </c>
-      <c r="F14" s="31">
-        <f>SUM(F12:F13)</f>
-        <v>0.40149999999999997</v>
-      </c>
-      <c r="H14" s="37">
-        <v>5</v>
-      </c>
-      <c r="I14" s="23" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="H14" s="74">
+        <v>5</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="9">
@@ -1775,25 +1752,25 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="71">
         <v>4</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="24">
+      <c r="B15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="21">
         <v>100</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>2.0543981481481479E-2</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="23">
         <v>0.94699999999999995</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="23">
         <v>0.20150000000000001</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1811,342 +1788,305 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="24">
+      <c r="A16" s="71"/>
+      <c r="B16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="21">
         <v>26</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <v>5.8680555555555543E-3</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="23">
         <v>0.94350000000000001</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="23">
         <v>0.16159999999999999</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="75">
-        <f>AVERAGE(J6,J8,J10,J12,J14)</f>
+      <c r="I16" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="59">
+        <f t="shared" ref="J16:M17" si="0">AVERAGE(J6,J8,J10,J12,J14)</f>
         <v>0.94399999999999995</v>
       </c>
-      <c r="K16" s="75">
-        <f>AVERAGE(K6,K8,K10,K12,K14)</f>
+      <c r="K16" s="59">
+        <f t="shared" si="0"/>
         <v>0.94199999999999995</v>
       </c>
-      <c r="L16" s="75">
-        <f>AVERAGE(L6,L8,L10,L12,L14)</f>
+      <c r="L16" s="59">
+        <f t="shared" si="0"/>
         <v>0.94199999999999995</v>
       </c>
-      <c r="M16" s="75">
-        <f>AVERAGE(M6,M8,M10,M12,M14)</f>
+      <c r="M16" s="59">
+        <f t="shared" si="0"/>
         <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="25">
         <f>SUM(C15:C16)</f>
         <v>126</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <f>SUM(D15:D16)</f>
         <v>2.6412037037037032E-2</v>
       </c>
-      <c r="E17" s="31">
-        <f>SUM(E15:E16)</f>
-        <v>1.8904999999999998</v>
-      </c>
-      <c r="F17" s="31">
-        <f>SUM(F15:F16)</f>
-        <v>0.36309999999999998</v>
-      </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="77">
-        <f>AVERAGE(J7,J9,J11,J13,J15)</f>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="60">
+        <f t="shared" si="0"/>
         <v>0.95199999999999996</v>
       </c>
-      <c r="K17" s="77">
-        <f>AVERAGE(K7,K9,K11,K13,K15)</f>
+      <c r="K17" s="60">
+        <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="L17" s="77">
-        <f>AVERAGE(L7,L9,L11,L13,L15)</f>
+      <c r="L17" s="60">
+        <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="M17" s="77">
-        <f>AVERAGE(M7,M9,M11,M13,M15)</f>
+      <c r="M17" s="60">
+        <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
-        <v>5</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="34">
+      <c r="A18" s="73">
+        <v>5</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="29">
         <v>100</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="30">
         <v>2.0231481481481482E-2</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="31">
         <v>0.95050000000000001</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="31">
         <v>0.18140000000000001</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="59">
-        <f>_xlfn.STDEV.P(J6,J8,J10,J12,J14)</f>
+      <c r="I18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="48">
+        <f t="shared" ref="J18:M19" si="1">_xlfn.STDEV.P(J6,J8,J10,J12,J14)</f>
         <v>4.89897948556636E-3</v>
       </c>
-      <c r="K18" s="59">
-        <f>_xlfn.STDEV.P(K6,K8,K10,K12,K14)</f>
+      <c r="K18" s="48">
+        <f t="shared" si="1"/>
         <v>7.4833147735478538E-3</v>
       </c>
-      <c r="L18" s="59">
-        <f>_xlfn.STDEV.P(L6,L8,L10,L12,L14)</f>
+      <c r="L18" s="48">
+        <f t="shared" si="1"/>
         <v>7.4833147735478538E-3</v>
       </c>
-      <c r="M18" s="59">
-        <f>_xlfn.STDEV.P(M6,M8,M10,M12,M14)</f>
+      <c r="M18" s="48">
+        <f t="shared" si="1"/>
         <v>7.4833147735478538E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="A19" s="74"/>
+      <c r="B19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="21">
         <v>100</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="22">
         <v>2.1608796296296296E-2</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="23">
         <v>0.9788</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="23">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="60">
-        <f>_xlfn.STDEV.P(J7,J9,J11,J13,J15)</f>
+      <c r="H19" s="77"/>
+      <c r="I19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="49">
+        <f t="shared" si="1"/>
         <v>9.7979589711327201E-3</v>
       </c>
-      <c r="K19" s="60">
-        <f>_xlfn.STDEV.P(K7,K9,K11,K13,K15)</f>
+      <c r="K19" s="49">
+        <f t="shared" si="1"/>
         <v>1.0954451150103331E-2</v>
       </c>
-      <c r="L19" s="60">
-        <f>_xlfn.STDEV.P(L7,L9,L11,L13,L15)</f>
+      <c r="L19" s="49">
+        <f t="shared" si="1"/>
         <v>1.0954451150103331E-2</v>
       </c>
-      <c r="M19" s="60">
-        <f>_xlfn.STDEV.P(M7,M9,M11,M13,M15)</f>
+      <c r="M19" s="49">
+        <f t="shared" si="1"/>
         <v>1.0954451150103331E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="33">
         <f>SUM(C18:C19)</f>
         <v>200</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="34">
         <f>SUM(D18:D19)</f>
         <v>4.1840277777777782E-2</v>
       </c>
-      <c r="E20" s="42">
-        <f>SUM(E18:E19)</f>
-        <v>1.9293</v>
-      </c>
-      <c r="F20" s="42">
-        <f>SUM(F18:F19)</f>
-        <v>0.26080000000000003</v>
-      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="55">
-        <f>AVERAGE(C6,C9,C12,C15,C18)</f>
+      <c r="B21" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="44">
+        <f t="shared" ref="C21:F23" si="2">AVERAGE(C6,C9,C12,C15,C18)</f>
         <v>100</v>
       </c>
-      <c r="D21" s="45">
-        <f>AVERAGE(D6,D9,D12,D15,D18)</f>
+      <c r="D21" s="37">
+        <f t="shared" si="2"/>
         <v>2.0143518518518515E-2</v>
       </c>
-      <c r="E21" s="46">
-        <f>AVERAGE(E6,E9,E12,E15,E18)</f>
+      <c r="E21" s="38">
+        <f t="shared" si="2"/>
         <v>0.94628000000000001</v>
       </c>
-      <c r="F21" s="46">
-        <f>AVERAGE(F6,F9,F12,F15,F18)</f>
+      <c r="F21" s="38">
+        <f t="shared" si="2"/>
         <v>0.19395999999999999</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="62">
-        <f>AVERAGE(C7,C10,C13,C16,C19)</f>
+      <c r="A22" s="74"/>
+      <c r="B22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="51">
+        <f t="shared" si="2"/>
         <v>48.4</v>
       </c>
-      <c r="D22" s="25">
-        <f>AVERAGE(D7,D10,D13,D16,D19)</f>
+      <c r="D22" s="22">
+        <f t="shared" si="2"/>
         <v>1.0523148148148148E-2</v>
       </c>
-      <c r="E22" s="26">
-        <f>AVERAGE(E7,E10,E13,E16,E19)</f>
+      <c r="E22" s="23">
+        <f t="shared" si="2"/>
         <v>0.95973999999999982</v>
       </c>
-      <c r="F22" s="26">
-        <f>AVERAGE(F7,F10,F13,F16,F19)</f>
+      <c r="F22" s="23">
+        <f t="shared" si="2"/>
         <v>0.13550000000000001</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="63">
-        <f>AVERAGE(C8,C11,C14,C17,C20)</f>
+      <c r="C23" s="52">
+        <f t="shared" si="2"/>
         <v>148.4</v>
       </c>
-      <c r="D23" s="30">
-        <f>AVERAGE(D8,D11,D14,D17,D20)</f>
+      <c r="D23" s="26">
+        <f t="shared" si="2"/>
         <v>3.0666666666666665E-2</v>
       </c>
-      <c r="E23" s="31">
-        <f>AVERAGE(E8,E11,E14,E17,E20)</f>
-        <v>1.9060199999999998</v>
-      </c>
-      <c r="F23" s="31">
-        <f>AVERAGE(F8,F11,F14,F17,F20)</f>
-        <v>0.32945999999999998</v>
-      </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="18"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="O23" s="70"/>
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="78">
+      <c r="B24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="61">
         <f>_xlfn.STDEV.P(C6,C9,C12,C15,C18)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="35">
-        <f t="shared" ref="D24:F24" si="0">_xlfn.STDEV.P(D6,D9,D12,D15,D18)</f>
+      <c r="D24" s="30">
+        <f t="shared" ref="D24:F24" si="3">_xlfn.STDEV.P(D6,D9,D12,D15,D18)</f>
         <v>3.739411204871974E-4</v>
       </c>
-      <c r="E24" s="65">
-        <f t="shared" si="0"/>
+      <c r="E24" s="54">
+        <f t="shared" si="3"/>
         <v>9.3079321011704658E-3</v>
       </c>
-      <c r="F24" s="65">
-        <f t="shared" si="0"/>
+      <c r="F24" s="54">
+        <f t="shared" si="3"/>
         <v>2.0755683558967727E-2</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="18"/>
+      <c r="O24" s="70"/>
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="61">
+      <c r="A25" s="71"/>
+      <c r="B25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="50">
         <f>_xlfn.STDEV.P(C7,C10,C13,C16,C19)</f>
         <v>30.243015722642475</v>
       </c>
-      <c r="D25" s="25">
-        <f t="shared" ref="D25:F25" si="1">_xlfn.STDEV.P(D7,D10,D13,D16,D19)</f>
+      <c r="D25" s="22">
+        <f t="shared" ref="D25:F25" si="4">_xlfn.STDEV.P(D7,D10,D13,D16,D19)</f>
         <v>6.544053128169673E-3</v>
       </c>
-      <c r="E25" s="64">
-        <f t="shared" si="1"/>
+      <c r="E25" s="53">
+        <f t="shared" si="4"/>
         <v>1.2346756659139275E-2</v>
       </c>
-      <c r="F25" s="64">
-        <f t="shared" si="1"/>
+      <c r="F25" s="53">
+        <f t="shared" si="4"/>
         <v>4.1215239899823404E-2</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="17"/>
+      <c r="O25" s="70"/>
     </row>
     <row r="26" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="69" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="62">
         <f>_xlfn.STDEV.P(C8,C11,C14,C17,C20)</f>
         <v>30.243015722642475</v>
       </c>
-      <c r="D26" s="41">
-        <f t="shared" ref="D26:F26" si="2">_xlfn.STDEV.P(D8,D11,D14,D17,D20)</f>
+      <c r="D26" s="34">
+        <f t="shared" ref="D26:F26" si="5">_xlfn.STDEV.P(D8,D11,D14,D17,D20)</f>
         <v>6.6392771013619812E-3</v>
       </c>
-      <c r="E26" s="66">
-        <f t="shared" si="2"/>
-        <v>1.9008040403997544E-2</v>
-      </c>
-      <c r="F26" s="66">
-        <f t="shared" si="2"/>
-        <v>6.0572026546913516E-2</v>
-      </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -2231,7 +2171,6 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2260,64 +2199,64 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="24">
+      <c r="B6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="21">
         <v>100</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>3.3171296296296296E-2</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <v>0.93989999999999996</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>0.253</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="78">
         <v>1</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="56" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="3">
@@ -2334,24 +2273,24 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="A7" s="71"/>
+      <c r="B7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
         <v>9</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="23">
         <v>0.93989999999999996</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <v>0.2097</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28" t="s">
+      <c r="H7" s="72"/>
+      <c r="I7" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="16">
@@ -2368,24 +2307,24 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="25">
         <f>SUM(C6:C7)</f>
         <v>109</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="26">
         <f>SUM(D6:D7)</f>
         <v>3.6273148148148152E-2</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="H8" s="22">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="H8" s="71">
         <v>2</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="9">
@@ -2402,26 +2341,26 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="71">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="21">
         <v>100</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>3.2731481481481479E-2</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="23">
         <v>0.93289999999999995</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="23">
         <v>0.24249999999999999</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="16">
@@ -2438,26 +2377,26 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="A10" s="71"/>
+      <c r="B10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21">
         <v>12</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>4.7106481481481478E-3</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="23">
         <v>0.94699999999999995</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="23">
         <v>0.1867</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="71">
         <v>3</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="9">
@@ -2474,22 +2413,22 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <f>SUM(C9:C10)</f>
         <v>112</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="26">
         <f>SUM(D9:D10)</f>
         <v>3.7442129629629631E-2</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="16">
@@ -2506,28 +2445,28 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="71">
         <v>3</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="24">
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="21">
         <v>100</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>3.4768518518518525E-2</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="23">
         <v>0.94350000000000001</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="23">
         <v>0.2024</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="71">
         <v>4</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="9">
@@ -2544,24 +2483,24 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="24">
+      <c r="A13" s="71"/>
+      <c r="B13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="21">
         <v>17</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="23">
         <v>0.97170000000000001</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="23">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28" t="s">
+      <c r="H13" s="72"/>
+      <c r="I13" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="16">
@@ -2578,24 +2517,24 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="25">
         <f>SUM(C12:C13)</f>
         <v>117</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <f>SUM(D12:D13)</f>
         <v>4.1435185185185193E-2</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="H14" s="37">
-        <v>5</v>
-      </c>
-      <c r="I14" s="23" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="H14" s="74">
+        <v>5</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="9">
@@ -2612,25 +2551,25 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="71">
         <v>4</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="24">
+      <c r="B15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="21">
         <v>100</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>3.4317129629629628E-2</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="23">
         <v>0.92930000000000001</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="23">
         <v>0.26590000000000003</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="4" t="s">
         <v>5</v>
       </c>
@@ -2648,318 +2587,305 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="24">
+      <c r="A16" s="71"/>
+      <c r="B16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="21">
         <v>13</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <v>4.2708333333333339E-3</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="23">
         <v>0.94350000000000001</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="23">
         <v>0.18090000000000001</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="75">
-        <f>AVERAGE(J6,J8,J10,J12,J14)</f>
+      <c r="I16" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="59">
+        <f t="shared" ref="J16:M17" si="0">AVERAGE(J6,J8,J10,J12,J14)</f>
         <v>0.93399999999999994</v>
       </c>
-      <c r="K16" s="75">
-        <f>AVERAGE(K6,K8,K10,K12,K14)</f>
+      <c r="K16" s="59">
+        <f t="shared" si="0"/>
         <v>0.93</v>
       </c>
-      <c r="L16" s="75">
-        <f>AVERAGE(L6,L8,L10,L12,L14)</f>
+      <c r="L16" s="59">
+        <f t="shared" si="0"/>
         <v>0.93</v>
       </c>
-      <c r="M16" s="75">
-        <f>AVERAGE(M6,M8,M10,M12,M14)</f>
+      <c r="M16" s="59">
+        <f t="shared" si="0"/>
         <v>0.93</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="25">
         <f>SUM(C15:C16)</f>
         <v>113</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <f>SUM(D15:D16)</f>
         <v>3.8587962962962963E-2</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="77">
-        <f>AVERAGE(J7,J9,J11,J13,J15)</f>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="60">
+        <f t="shared" si="0"/>
         <v>0.95199999999999996</v>
       </c>
-      <c r="K17" s="77">
-        <f>AVERAGE(K7,K9,K11,K13,K15)</f>
+      <c r="K17" s="60">
+        <f t="shared" si="0"/>
         <v>0.94799999999999984</v>
       </c>
-      <c r="L17" s="77">
-        <f>AVERAGE(L7,L9,L11,L13,L15)</f>
+      <c r="L17" s="60">
+        <f t="shared" si="0"/>
         <v>0.94799999999999984</v>
       </c>
-      <c r="M17" s="77">
-        <f>AVERAGE(M7,M9,M11,M13,M15)</f>
+      <c r="M17" s="60">
+        <f t="shared" si="0"/>
         <v>0.94799999999999984</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
-        <v>5</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="34">
+      <c r="A18" s="73">
+        <v>5</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="29">
         <v>100</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="30">
         <v>3.6400462962962961E-2</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="31">
         <v>0.91520000000000001</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="31">
         <v>0.2999</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="59">
-        <f>_xlfn.STDEV.P(J6,J8,J10,J12,J14)</f>
+      <c r="I18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="48">
+        <f t="shared" ref="J18:M19" si="1">_xlfn.STDEV.P(J6,J8,J10,J12,J14)</f>
         <v>7.9999999999999637E-3</v>
       </c>
-      <c r="K18" s="59">
-        <f>_xlfn.STDEV.P(K6,K8,K10,K12,K14)</f>
+      <c r="K18" s="48">
+        <f t="shared" si="1"/>
         <v>1.0954451150103291E-2</v>
       </c>
-      <c r="L18" s="59">
-        <f>_xlfn.STDEV.P(L6,L8,L10,L12,L14)</f>
+      <c r="L18" s="48">
+        <f t="shared" si="1"/>
         <v>1.0954451150103291E-2</v>
       </c>
-      <c r="M18" s="59">
-        <f>_xlfn.STDEV.P(M6,M8,M10,M12,M14)</f>
+      <c r="M18" s="48">
+        <f t="shared" si="1"/>
         <v>1.0954451150103291E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="A19" s="74"/>
+      <c r="B19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="21">
         <v>18</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="22">
         <v>7.4537037037037028E-3</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="23">
         <v>0.91869999999999996</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="23">
         <v>0.23899999999999999</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="60">
-        <f>_xlfn.STDEV.P(J7,J9,J11,J13,J15)</f>
+      <c r="H19" s="77"/>
+      <c r="I19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="49">
+        <f t="shared" si="1"/>
         <v>7.4833147735478894E-3</v>
       </c>
-      <c r="K19" s="60">
-        <f>_xlfn.STDEV.P(K7,K9,K11,K13,K15)</f>
+      <c r="K19" s="49">
+        <f t="shared" si="1"/>
         <v>7.4833147735478903E-3</v>
       </c>
-      <c r="L19" s="60">
-        <f>_xlfn.STDEV.P(L7,L9,L11,L13,L15)</f>
+      <c r="L19" s="49">
+        <f t="shared" si="1"/>
         <v>7.4833147735478903E-3</v>
       </c>
-      <c r="M19" s="60">
-        <f>_xlfn.STDEV.P(M7,M9,M11,M13,M15)</f>
+      <c r="M19" s="49">
+        <f t="shared" si="1"/>
         <v>7.4833147735478903E-3</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="33">
         <f>SUM(C18:C19)</f>
         <v>118</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="34">
         <f>SUM(D18:D19)</f>
         <v>4.3854166666666666E-2</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="55">
-        <f>AVERAGE(C6,C9,C12,C15,C18)</f>
+      <c r="B21" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="44">
+        <f t="shared" ref="C21:F22" si="2">AVERAGE(C6,C9,C12,C15,C18)</f>
         <v>100</v>
       </c>
-      <c r="D21" s="45">
-        <f>AVERAGE(D6,D9,D12,D15,D18)</f>
+      <c r="D21" s="37">
+        <f t="shared" si="2"/>
         <v>3.4277777777777782E-2</v>
       </c>
-      <c r="E21" s="46">
-        <f>AVERAGE(E6,E9,E12,E15,E18)</f>
+      <c r="E21" s="38">
+        <f t="shared" si="2"/>
         <v>0.93215999999999999</v>
       </c>
-      <c r="F21" s="46">
-        <f>AVERAGE(F6,F9,F12,F15,F18)</f>
+      <c r="F21" s="38">
+        <f t="shared" si="2"/>
         <v>0.25274000000000002</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="62">
-        <f>AVERAGE(C7,C10,C13,C16,C19)</f>
+      <c r="A22" s="74"/>
+      <c r="B22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="51">
+        <f t="shared" si="2"/>
         <v>13.8</v>
       </c>
-      <c r="D22" s="25">
-        <f>AVERAGE(D7,D10,D13,D16,D19)</f>
+      <c r="D22" s="22">
+        <f t="shared" si="2"/>
         <v>5.2407407407407411E-3</v>
       </c>
-      <c r="E22" s="26">
-        <f>AVERAGE(E7,E10,E13,E16,E19)</f>
+      <c r="E22" s="23">
+        <f t="shared" si="2"/>
         <v>0.94416000000000011</v>
       </c>
-      <c r="F22" s="26">
-        <f>AVERAGE(F7,F10,F13,F16,F19)</f>
+      <c r="F22" s="23">
+        <f t="shared" si="2"/>
         <v>0.19185999999999998</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="52">
         <f>AVERAGE(C8,C11,C14,C17,C20)</f>
         <v>113.8</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="26">
         <f>AVERAGE(D8,D11,D14,D17,D20)</f>
         <v>3.9518518518518522E-2</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="18"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="O23" s="70"/>
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="78">
+      <c r="B24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="61">
         <f>_xlfn.STDEV.P(C6,C9,C12,C15,C18)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="35">
-        <f t="shared" ref="D24:F26" si="0">_xlfn.STDEV.P(D6,D9,D12,D15,D18)</f>
+      <c r="D24" s="30">
+        <f t="shared" ref="D24:F26" si="3">_xlfn.STDEV.P(D6,D9,D12,D15,D18)</f>
         <v>1.2933291107117867E-3</v>
       </c>
-      <c r="E24" s="65">
-        <f t="shared" si="0"/>
+      <c r="E24" s="54">
+        <f t="shared" si="3"/>
         <v>9.847558072943758E-3</v>
       </c>
-      <c r="F24" s="65">
-        <f t="shared" si="0"/>
+      <c r="F24" s="54">
+        <f t="shared" si="3"/>
         <v>3.1737334481647943E-2</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="18"/>
+      <c r="O24" s="70"/>
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="61">
+      <c r="A25" s="71"/>
+      <c r="B25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="50">
         <f>_xlfn.STDEV.P(C7,C10,C13,C16,C19)</f>
         <v>3.3105890714493698</v>
       </c>
-      <c r="D25" s="25">
-        <f t="shared" si="0"/>
+      <c r="D25" s="22">
+        <f t="shared" si="3"/>
         <v>1.5954331096195266E-3</v>
       </c>
-      <c r="E25" s="64">
-        <f t="shared" si="0"/>
+      <c r="E25" s="53">
+        <f t="shared" si="3"/>
         <v>1.6931107465254613E-2</v>
       </c>
-      <c r="F25" s="64">
-        <f t="shared" si="0"/>
+      <c r="F25" s="53">
+        <f t="shared" si="3"/>
         <v>3.1857470081599414E-2</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="17"/>
+      <c r="O25" s="70"/>
     </row>
     <row r="26" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="69" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="62">
         <f>_xlfn.STDEV.P(C8,C11,C14,C17,C20)</f>
         <v>3.3105890714493698</v>
       </c>
-      <c r="D26" s="41">
-        <f t="shared" si="0"/>
+      <c r="D26" s="34">
+        <f t="shared" si="3"/>
         <v>2.76337508407404E-3</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -3016,6 +2942,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="O23:O25"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A21:A23"/>
@@ -3026,11 +2957,6 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{834B75ED-D268-47C1-8D32-1A70E95C6CD3}"/>
@@ -3044,7 +2970,6 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3073,64 +2998,64 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="71">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="24">
+      <c r="B6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="21">
         <v>100</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>1.9375E-2</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <v>0.90110000000000001</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>0.31219999999999998</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="78">
         <v>1</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="56" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="3">
@@ -3147,24 +3072,24 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="A7" s="71"/>
+      <c r="B7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
         <v>56</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>1.1817129629629629E-2</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="23">
         <v>0.92579999999999996</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <v>0.221</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28" t="s">
+      <c r="H7" s="72"/>
+      <c r="I7" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="16">
@@ -3181,30 +3106,24 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="25">
         <f>SUM(C6:C7)</f>
         <v>156</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="26">
         <f>SUM(D6:D7)</f>
         <v>3.1192129629629629E-2</v>
       </c>
-      <c r="E8" s="31">
-        <f>SUM(E6:E7)</f>
-        <v>1.8269</v>
-      </c>
-      <c r="F8" s="31">
-        <f>SUM(F6:F7)</f>
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="H8" s="71">
         <v>2</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="9">
@@ -3221,26 +3140,26 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="71">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="21">
         <v>100</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>1.8634259259259257E-2</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="23">
         <v>0.92579999999999996</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="23">
         <v>0.29420000000000002</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="16">
@@ -3257,26 +3176,26 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="A10" s="71"/>
+      <c r="B10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21">
         <v>55</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>1.119212962962963E-2</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="23">
         <v>0.95050000000000001</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="23">
         <v>0.21249999999999999</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="71">
         <v>3</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="9">
@@ -3293,28 +3212,22 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <f>SUM(C9:C10)</f>
         <v>155</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="26">
         <f>SUM(D9:D10)</f>
         <v>2.9826388888888888E-2</v>
       </c>
-      <c r="E11" s="31">
-        <f>SUM(E9:E10)</f>
-        <v>1.8763000000000001</v>
-      </c>
-      <c r="F11" s="31">
-        <f>SUM(F9:F10)</f>
-        <v>0.50670000000000004</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="16">
@@ -3331,28 +3244,28 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="71">
         <v>3</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="24">
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="21">
         <v>100</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>1.9328703703703702E-2</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="23">
         <v>0.93289999999999995</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="23">
         <v>0.25919999999999999</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="71">
         <v>4</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="9">
@@ -3369,24 +3282,24 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="24">
+      <c r="A13" s="71"/>
+      <c r="B13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="21">
         <v>100</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>2.0983796296296296E-2</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="23">
         <v>0.95399999999999996</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="23">
         <v>0.1439</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28" t="s">
+      <c r="H13" s="72"/>
+      <c r="I13" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="16">
@@ -3403,30 +3316,24 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="25">
         <f>SUM(C12:C13)</f>
         <v>200</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <f>SUM(D12:D13)</f>
         <v>4.0312500000000001E-2</v>
       </c>
-      <c r="E14" s="31">
-        <f>SUM(E12:E13)</f>
-        <v>1.8868999999999998</v>
-      </c>
-      <c r="F14" s="31">
-        <f>SUM(F12:F13)</f>
-        <v>0.40310000000000001</v>
-      </c>
-      <c r="H14" s="37">
-        <v>5</v>
-      </c>
-      <c r="I14" s="23" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="H14" s="74">
+        <v>5</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="9">
@@ -3443,25 +3350,25 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="71">
         <v>4</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="24">
+      <c r="B15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="21">
         <v>100</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>1.9432870370370371E-2</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="23">
         <v>0.93230000000000002</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="23">
         <v>0.26029999999999998</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="4" t="s">
         <v>5</v>
       </c>
@@ -3479,342 +3386,305 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="24">
+      <c r="A16" s="71"/>
+      <c r="B16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="21">
         <v>92</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <v>1.9768518518518515E-2</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="23">
         <v>0.94350000000000001</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="23">
         <v>0.1648</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="75">
-        <f>AVERAGE(J6,J8,J10,J12,J14)</f>
+      <c r="I16" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="59">
+        <f t="shared" ref="J16:M17" si="0">AVERAGE(J6,J8,J10,J12,J14)</f>
         <v>0.90999999999999992</v>
       </c>
-      <c r="K16" s="75">
-        <f>AVERAGE(K6,K8,K10,K12,K14)</f>
+      <c r="K16" s="59">
+        <f t="shared" si="0"/>
         <v>0.90400000000000014</v>
       </c>
-      <c r="L16" s="75">
-        <f>AVERAGE(L6,L8,L10,L12,L14)</f>
+      <c r="L16" s="59">
+        <f t="shared" si="0"/>
         <v>0.90400000000000014</v>
       </c>
-      <c r="M16" s="75">
-        <f>AVERAGE(M6,M8,M10,M12,M14)</f>
+      <c r="M16" s="59">
+        <f t="shared" si="0"/>
         <v>0.90400000000000014</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="25">
         <f>SUM(C15:C16)</f>
         <v>192</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <f>SUM(D15:D16)</f>
         <v>3.9201388888888883E-2</v>
       </c>
-      <c r="E17" s="31">
-        <f>SUM(E15:E16)</f>
-        <v>1.8757999999999999</v>
-      </c>
-      <c r="F17" s="31">
-        <f>SUM(F15:F16)</f>
-        <v>0.42509999999999998</v>
-      </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="77">
-        <f>AVERAGE(J7,J9,J11,J13,J15)</f>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="60">
+        <f t="shared" si="0"/>
         <v>0.93600000000000017</v>
       </c>
-      <c r="K17" s="77">
-        <f>AVERAGE(K7,K9,K11,K13,K15)</f>
+      <c r="K17" s="60">
+        <f t="shared" si="0"/>
         <v>0.93399999999999994</v>
       </c>
-      <c r="L17" s="77">
-        <f>AVERAGE(L7,L9,L11,L13,L15)</f>
+      <c r="L17" s="60">
+        <f t="shared" si="0"/>
         <v>0.93600000000000017</v>
       </c>
-      <c r="M17" s="77">
-        <f>AVERAGE(M7,M9,M11,M13,M15)</f>
+      <c r="M17" s="60">
+        <f t="shared" si="0"/>
         <v>0.93399999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
-        <v>5</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="34">
+      <c r="A18" s="73">
+        <v>5</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="29">
         <v>100</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="30">
         <v>1.8703703703703705E-2</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="31">
         <v>0.92579999999999996</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="31">
         <v>0.30220000000000002</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="59">
-        <f>_xlfn.STDEV.P(J6,J8,J10,J12,J14)</f>
+      <c r="I18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="48">
+        <f t="shared" ref="J18:M19" si="1">_xlfn.STDEV.P(J6,J8,J10,J12,J14)</f>
         <v>1.6733200530681527E-2</v>
       </c>
-      <c r="K18" s="59">
-        <f>_xlfn.STDEV.P(K6,K8,K10,K12,K14)</f>
+      <c r="K18" s="48">
+        <f t="shared" si="1"/>
         <v>1.3564659966250548E-2</v>
       </c>
-      <c r="L18" s="59">
-        <f>_xlfn.STDEV.P(L6,L8,L10,L12,L14)</f>
+      <c r="L18" s="48">
+        <f t="shared" si="1"/>
         <v>1.3564659966250548E-2</v>
       </c>
-      <c r="M18" s="59">
-        <f>_xlfn.STDEV.P(M6,M8,M10,M12,M14)</f>
+      <c r="M18" s="48">
+        <f t="shared" si="1"/>
         <v>1.3564659966250548E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="A19" s="74"/>
+      <c r="B19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="21">
         <v>22</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="22">
         <v>4.4675925925925933E-3</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="23">
         <v>0.92230000000000001</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="23">
         <v>0.22570000000000001</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="60">
-        <f>_xlfn.STDEV.P(J7,J9,J11,J13,J15)</f>
+      <c r="H19" s="77"/>
+      <c r="I19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="49">
+        <f t="shared" si="1"/>
         <v>7.9999999999999568E-3</v>
       </c>
-      <c r="K19" s="60">
-        <f>_xlfn.STDEV.P(K7,K9,K11,K13,K15)</f>
+      <c r="K19" s="49">
+        <f t="shared" si="1"/>
         <v>1.0198039027185531E-2</v>
       </c>
-      <c r="L19" s="60">
-        <f>_xlfn.STDEV.P(L7,L9,L11,L13,L15)</f>
+      <c r="L19" s="49">
+        <f t="shared" si="1"/>
         <v>7.9999999999999568E-3</v>
       </c>
-      <c r="M19" s="60">
-        <f>_xlfn.STDEV.P(M7,M9,M11,M13,M15)</f>
+      <c r="M19" s="49">
+        <f t="shared" si="1"/>
         <v>1.0198039027185531E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="33">
         <f>SUM(C18:C19)</f>
         <v>122</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="34">
         <f>SUM(D18:D19)</f>
         <v>2.3171296296296297E-2</v>
       </c>
-      <c r="E20" s="42">
-        <f>SUM(E18:E19)</f>
-        <v>1.8481000000000001</v>
-      </c>
-      <c r="F20" s="42">
-        <f>SUM(F18:F19)</f>
-        <v>0.52790000000000004</v>
-      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="55">
-        <f>AVERAGE(C6,C9,C12,C15,C18)</f>
+      <c r="B21" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="44">
+        <f t="shared" ref="C21:F23" si="2">AVERAGE(C6,C9,C12,C15,C18)</f>
         <v>100</v>
       </c>
-      <c r="D21" s="45">
-        <f>AVERAGE(D6,D9,D12,D15,D18)</f>
+      <c r="D21" s="37">
+        <f t="shared" si="2"/>
         <v>1.9094907407407408E-2</v>
       </c>
-      <c r="E21" s="46">
-        <f>AVERAGE(E6,E9,E12,E15,E18)</f>
+      <c r="E21" s="38">
+        <f t="shared" si="2"/>
         <v>0.92357999999999996</v>
       </c>
-      <c r="F21" s="46">
-        <f>AVERAGE(F6,F9,F12,F15,F18)</f>
+      <c r="F21" s="38">
+        <f t="shared" si="2"/>
         <v>0.28562000000000004</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="62">
-        <f>AVERAGE(C7,C10,C13,C16,C19)</f>
+      <c r="A22" s="74"/>
+      <c r="B22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="51">
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="D22" s="25">
-        <f>AVERAGE(D7,D10,D13,D16,D19)</f>
+      <c r="D22" s="22">
+        <f t="shared" si="2"/>
         <v>1.3645833333333333E-2</v>
       </c>
-      <c r="E22" s="26">
-        <f>AVERAGE(E7,E10,E13,E16,E19)</f>
+      <c r="E22" s="23">
+        <f t="shared" si="2"/>
         <v>0.93922000000000005</v>
       </c>
-      <c r="F22" s="26">
-        <f>AVERAGE(F7,F10,F13,F16,F19)</f>
+      <c r="F22" s="23">
+        <f t="shared" si="2"/>
         <v>0.19358</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="63">
-        <f>AVERAGE(C8,C11,C14,C17,C20)</f>
+      <c r="C23" s="52">
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="D23" s="30">
-        <f>AVERAGE(D8,D11,D14,D17,D20)</f>
+      <c r="D23" s="26">
+        <f t="shared" si="2"/>
         <v>3.2740740740740744E-2</v>
       </c>
-      <c r="E23" s="31">
-        <f>AVERAGE(E8,E11,E14,E17,E20)</f>
-        <v>1.8628</v>
-      </c>
-      <c r="F23" s="31">
-        <f>AVERAGE(F8,F11,F14,F17,F20)</f>
-        <v>0.47919999999999996</v>
-      </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="18"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="O23" s="70"/>
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="78">
+      <c r="B24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="61">
         <f>_xlfn.STDEV.P(C6,C9,C12,C15,C18)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="35">
-        <f t="shared" ref="D24:F26" si="0">_xlfn.STDEV.P(D6,D9,D12,D15,D18)</f>
+      <c r="D24" s="30">
+        <f t="shared" ref="D24:F26" si="3">_xlfn.STDEV.P(D6,D9,D12,D15,D18)</f>
         <v>3.5001959576732992E-4</v>
       </c>
-      <c r="E24" s="65">
-        <f t="shared" si="0"/>
+      <c r="E24" s="54">
+        <f t="shared" si="3"/>
         <v>1.1645668722748371E-2</v>
       </c>
-      <c r="F24" s="65">
-        <f t="shared" si="0"/>
+      <c r="F24" s="54">
+        <f t="shared" si="3"/>
         <v>2.1882083995817227E-2</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="18"/>
+      <c r="O24" s="70"/>
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="61">
+      <c r="A25" s="71"/>
+      <c r="B25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="50">
         <f>_xlfn.STDEV.P(C7,C10,C13,C16,C19)</f>
         <v>28.227646023003761</v>
       </c>
-      <c r="D25" s="25">
-        <f t="shared" si="0"/>
+      <c r="D25" s="22">
+        <f t="shared" si="3"/>
         <v>6.0817414696648277E-3</v>
       </c>
-      <c r="E25" s="64">
-        <f t="shared" si="0"/>
+      <c r="E25" s="53">
+        <f t="shared" si="3"/>
         <v>1.288710983890492E-2</v>
       </c>
-      <c r="F25" s="64">
-        <f t="shared" si="0"/>
+      <c r="F25" s="53">
+        <f t="shared" si="3"/>
         <v>3.2978502088481861E-2</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="17"/>
+      <c r="O25" s="70"/>
     </row>
     <row r="26" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="69" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="62">
         <f>_xlfn.STDEV.P(C8,C11,C14,C17,C20)</f>
         <v>28.227646023003761</v>
       </c>
-      <c r="D26" s="41">
-        <f t="shared" si="0"/>
+      <c r="D26" s="34">
+        <f t="shared" si="3"/>
         <v>6.3488175724225266E-3</v>
       </c>
-      <c r="E26" s="66">
-        <f t="shared" si="0"/>
-        <v>2.2076956311955644E-2</v>
-      </c>
-      <c r="F26" s="66">
-        <f t="shared" si="0"/>
-        <v>5.4335918138925798E-2</v>
-      </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -3871,6 +3741,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="O23:O25"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A21:A23"/>
@@ -3881,11 +3756,6 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{CCB414E8-F6E9-454D-BEEB-CADC572F2CF1}"/>
